--- a/Code/Results/Cases/Case_5_243/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_243/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9982512649073089</v>
+        <v>1.03055029072378</v>
       </c>
       <c r="D2">
-        <v>1.020801057808651</v>
+        <v>1.039582631608319</v>
       </c>
       <c r="E2">
-        <v>1.004885172497494</v>
+        <v>1.030233735645875</v>
       </c>
       <c r="F2">
-        <v>1.024778747316787</v>
+        <v>1.048059835917407</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044204920708889</v>
+        <v>1.034988157074656</v>
       </c>
       <c r="J2">
-        <v>1.020484406442657</v>
+        <v>1.035690915942963</v>
       </c>
       <c r="K2">
-        <v>1.031978011883522</v>
+        <v>1.04236740876327</v>
       </c>
       <c r="L2">
-        <v>1.016276866087148</v>
+        <v>1.033045339321515</v>
       </c>
       <c r="M2">
-        <v>1.035903339644771</v>
+        <v>1.050820736706897</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.002826530634982</v>
+        <v>1.031525713853264</v>
       </c>
       <c r="D3">
-        <v>1.024234309476353</v>
+        <v>1.040334047593937</v>
       </c>
       <c r="E3">
-        <v>1.008542944698348</v>
+        <v>1.031063231416374</v>
       </c>
       <c r="F3">
-        <v>1.028727843380044</v>
+        <v>1.04894409824415</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045282148964179</v>
+        <v>1.035156002880945</v>
       </c>
       <c r="J3">
-        <v>1.023240437034857</v>
+        <v>1.036307707967146</v>
       </c>
       <c r="K3">
-        <v>1.034566220639084</v>
+        <v>1.04292922803617</v>
       </c>
       <c r="L3">
-        <v>1.01906767155279</v>
+        <v>1.033683090194355</v>
       </c>
       <c r="M3">
-        <v>1.039005881592479</v>
+        <v>1.05151678109444</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.005727938717874</v>
+        <v>1.032157419879803</v>
       </c>
       <c r="D4">
-        <v>1.026413742342643</v>
+        <v>1.040820539874346</v>
       </c>
       <c r="E4">
-        <v>1.010868700121685</v>
+        <v>1.031600807132731</v>
       </c>
       <c r="F4">
-        <v>1.031236407740971</v>
+        <v>1.049516877315329</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045955007651821</v>
+        <v>1.035263397277794</v>
       </c>
       <c r="J4">
-        <v>1.024986249529967</v>
+        <v>1.036706761791015</v>
       </c>
       <c r="K4">
-        <v>1.036203495410791</v>
+        <v>1.043292374736066</v>
       </c>
       <c r="L4">
-        <v>1.020837695718457</v>
+        <v>1.034095948083048</v>
       </c>
       <c r="M4">
-        <v>1.040971905341797</v>
+        <v>1.051967133040545</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.00693404809848</v>
+        <v>1.032423117985251</v>
       </c>
       <c r="D5">
-        <v>1.027320203829986</v>
+        <v>1.041025125892819</v>
       </c>
       <c r="E5">
-        <v>1.011836947044628</v>
+        <v>1.031827002915325</v>
       </c>
       <c r="F5">
-        <v>1.032280174339402</v>
+        <v>1.049757816376128</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046232207500349</v>
+        <v>1.035308254932027</v>
       </c>
       <c r="J5">
-        <v>1.025711480832616</v>
+        <v>1.036874510650811</v>
       </c>
       <c r="K5">
-        <v>1.036883088026261</v>
+        <v>1.043444947683672</v>
       </c>
       <c r="L5">
-        <v>1.021573507940192</v>
+        <v>1.03426955811229</v>
       </c>
       <c r="M5">
-        <v>1.041788774797721</v>
+        <v>1.052156451330734</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.007135773378552</v>
+        <v>1.032467737399309</v>
       </c>
       <c r="D6">
-        <v>1.027471838384419</v>
+        <v>1.04105948053718</v>
       </c>
       <c r="E6">
-        <v>1.011998972178547</v>
+        <v>1.031864993811216</v>
       </c>
       <c r="F6">
-        <v>1.032454802245209</v>
+        <v>1.049798279433289</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046278421429825</v>
+        <v>1.035315769652412</v>
       </c>
       <c r="J6">
-        <v>1.025832747449455</v>
+        <v>1.03690267561095</v>
       </c>
       <c r="K6">
-        <v>1.036996690523143</v>
+        <v>1.043470559814552</v>
       </c>
       <c r="L6">
-        <v>1.021696574537198</v>
+        <v>1.034298710584372</v>
       </c>
       <c r="M6">
-        <v>1.041925373390895</v>
+        <v>1.05218823810251</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.005744107765808</v>
+        <v>1.032160969645518</v>
       </c>
       <c r="D7">
-        <v>1.026425892523375</v>
+        <v>1.040823273310394</v>
       </c>
       <c r="E7">
-        <v>1.010881674787869</v>
+        <v>1.031603828791743</v>
       </c>
       <c r="F7">
-        <v>1.03125039670361</v>
+        <v>1.049520096195782</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045958733735232</v>
+        <v>1.035263997811875</v>
       </c>
       <c r="J7">
-        <v>1.024995973968758</v>
+        <v>1.036709003313209</v>
       </c>
       <c r="K7">
-        <v>1.036212610088989</v>
+        <v>1.043294413793641</v>
       </c>
       <c r="L7">
-        <v>1.020847559968091</v>
+        <v>1.034098267694889</v>
       </c>
       <c r="M7">
-        <v>1.040982857916136</v>
+        <v>1.051969662760316</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9998100453801753</v>
+        <v>1.030879826778748</v>
       </c>
       <c r="D8">
-        <v>1.02197025145826</v>
+        <v>1.039836518200812</v>
       </c>
       <c r="E8">
-        <v>1.006130041433562</v>
+        <v>1.030513893640531</v>
       </c>
       <c r="F8">
-        <v>1.026123269077898</v>
+        <v>1.048358550956346</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044574055138028</v>
+        <v>1.035045132198321</v>
       </c>
       <c r="J8">
-        <v>1.021423759252232</v>
+        <v>1.035899373860225</v>
       </c>
       <c r="K8">
-        <v>1.03286062343157</v>
+        <v>1.042557357909368</v>
       </c>
       <c r="L8">
-        <v>1.017227612760265</v>
+        <v>1.033260830174246</v>
       </c>
       <c r="M8">
-        <v>1.036960639136325</v>
+        <v>1.051055974749293</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9888768597986726</v>
+        <v>1.028626479261632</v>
       </c>
       <c r="D9">
-        <v>1.013781662621343</v>
+        <v>1.03809990375174</v>
       </c>
       <c r="E9">
-        <v>0.9974268327568515</v>
+        <v>1.028599752738653</v>
       </c>
       <c r="F9">
-        <v>1.016713304405739</v>
+        <v>1.046316435341159</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041943228858419</v>
+        <v>1.034650196283176</v>
       </c>
       <c r="J9">
-        <v>1.014828613166859</v>
+        <v>1.034472348170658</v>
       </c>
       <c r="K9">
-        <v>1.02665503028324</v>
+        <v>1.041255646555638</v>
       </c>
       <c r="L9">
-        <v>1.010561796217944</v>
+        <v>1.031786661570097</v>
       </c>
       <c r="M9">
-        <v>1.029540917275181</v>
+        <v>1.049445722806262</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9812318691073546</v>
+        <v>1.027127115180575</v>
       </c>
       <c r="D10">
-        <v>1.00807415390687</v>
+        <v>1.036943704306534</v>
       </c>
       <c r="E10">
-        <v>0.9913793966547961</v>
+        <v>1.027328081870708</v>
       </c>
       <c r="F10">
-        <v>1.010162229950386</v>
+        <v>1.044958252949471</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040052608889057</v>
+        <v>1.034380707133342</v>
       </c>
       <c r="J10">
-        <v>1.010210431399735</v>
+        <v>1.033520814853591</v>
       </c>
       <c r="K10">
-        <v>1.022299141388168</v>
+        <v>1.04038593452166</v>
       </c>
       <c r="L10">
-        <v>1.005906062926392</v>
+        <v>1.030804953030839</v>
       </c>
       <c r="M10">
-        <v>1.024350394702263</v>
+        <v>1.048372147136781</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.977828351386645</v>
+        <v>1.026478564324758</v>
       </c>
       <c r="D11">
-        <v>1.005538568186584</v>
+        <v>1.036443440318482</v>
       </c>
       <c r="E11">
-        <v>0.9886969987491684</v>
+        <v>1.026778499453484</v>
       </c>
       <c r="F11">
-        <v>1.007253532628808</v>
+        <v>1.044370928184025</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039199478215432</v>
+        <v>1.03426255175727</v>
       </c>
       <c r="J11">
-        <v>1.008153497172725</v>
+        <v>1.033108758598985</v>
       </c>
       <c r="K11">
-        <v>1.020356785656782</v>
+        <v>1.04000890074484</v>
       </c>
       <c r="L11">
-        <v>1.003835268159461</v>
+        <v>1.030380128702086</v>
       </c>
       <c r="M11">
-        <v>1.022039942206721</v>
+        <v>1.047907274216037</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9765493346908907</v>
+        <v>1.026237767138234</v>
       </c>
       <c r="D12">
-        <v>1.004586613081399</v>
+        <v>1.036257678137218</v>
       </c>
       <c r="E12">
-        <v>0.9876905342006346</v>
+        <v>1.026574520515102</v>
       </c>
       <c r="F12">
-        <v>1.00616172801048</v>
+        <v>1.044152887763824</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038877219559844</v>
+        <v>1.034218444024338</v>
       </c>
       <c r="J12">
-        <v>1.007380430439293</v>
+        <v>1.03295569803995</v>
       </c>
       <c r="K12">
-        <v>1.019626465231271</v>
+        <v>1.039868788100282</v>
       </c>
       <c r="L12">
-        <v>1.003057425951889</v>
+        <v>1.030222370356616</v>
       </c>
       <c r="M12">
-        <v>1.021171823537728</v>
+        <v>1.047734599740375</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9768243712334922</v>
+        <v>1.026289414257256</v>
       </c>
       <c r="D13">
-        <v>1.004791276967177</v>
+        <v>1.036297522103177</v>
       </c>
       <c r="E13">
-        <v>0.9879068900684602</v>
+        <v>1.026618267409102</v>
       </c>
       <c r="F13">
-        <v>1.006396448436907</v>
+        <v>1.044199652805379</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038946591202992</v>
+        <v>1.034227915210474</v>
       </c>
       <c r="J13">
-        <v>1.00754667175048</v>
+        <v>1.032988530239534</v>
       </c>
       <c r="K13">
-        <v>1.019783528256102</v>
+        <v>1.039898845686638</v>
       </c>
       <c r="L13">
-        <v>1.003224674529632</v>
+        <v>1.030256208216829</v>
       </c>
       <c r="M13">
-        <v>1.021358494293533</v>
+        <v>1.047771638981722</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9777229341745419</v>
+        <v>1.026458657838853</v>
       </c>
       <c r="D14">
-        <v>1.005460088735448</v>
+        <v>1.036428083964837</v>
       </c>
       <c r="E14">
-        <v>0.9886140132621161</v>
+        <v>1.026761635210503</v>
       </c>
       <c r="F14">
-        <v>1.007163519349589</v>
+        <v>1.04435290247666</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039172950849978</v>
+        <v>1.034258910274455</v>
       </c>
       <c r="J14">
-        <v>1.00808978204018</v>
+        <v>1.033096106652428</v>
       </c>
       <c r="K14">
-        <v>1.020296599920154</v>
+        <v>1.039997320320567</v>
       </c>
       <c r="L14">
-        <v>1.003771150600755</v>
+        <v>1.030367087519789</v>
       </c>
       <c r="M14">
-        <v>1.021968388256474</v>
+        <v>1.047893000882761</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.978274582646277</v>
+        <v>1.026562948129963</v>
       </c>
       <c r="D15">
-        <v>1.005870809063773</v>
+        <v>1.036508535181067</v>
       </c>
       <c r="E15">
-        <v>0.9890483405399509</v>
+        <v>1.026849990142725</v>
       </c>
       <c r="F15">
-        <v>1.007634611000261</v>
+        <v>1.044447340354313</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039311701361823</v>
+        <v>1.034277978276887</v>
       </c>
       <c r="J15">
-        <v>1.008423200273629</v>
+        <v>1.033162387458886</v>
       </c>
       <c r="K15">
-        <v>1.020611536232774</v>
+        <v>1.040057985141569</v>
       </c>
       <c r="L15">
-        <v>1.004106692413709</v>
+        <v>1.030435409290407</v>
       </c>
       <c r="M15">
-        <v>1.022342836091717</v>
+        <v>1.047967775993636</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9814557191651365</v>
+        <v>1.027170171834308</v>
       </c>
       <c r="D16">
-        <v>1.008241039511076</v>
+        <v>1.036976913258947</v>
       </c>
       <c r="E16">
-        <v>0.99155603085137</v>
+        <v>1.027364578275709</v>
       </c>
       <c r="F16">
-        <v>1.010353705721597</v>
+        <v>1.044997248252351</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04010848617897</v>
+        <v>1.034388517897906</v>
       </c>
       <c r="J16">
-        <v>1.010345701399629</v>
+        <v>1.033548160987128</v>
       </c>
       <c r="K16">
-        <v>1.022426831346673</v>
+        <v>1.040410947769486</v>
       </c>
       <c r="L16">
-        <v>1.006042304396951</v>
+        <v>1.030833152824195</v>
       </c>
       <c r="M16">
-        <v>1.024502367532573</v>
+        <v>1.048402999161248</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9834256672405888</v>
+        <v>1.027551250799699</v>
       </c>
       <c r="D17">
-        <v>1.009710305620347</v>
+        <v>1.037270816606136</v>
       </c>
       <c r="E17">
-        <v>0.9931116001888775</v>
+        <v>1.027687650360092</v>
       </c>
       <c r="F17">
-        <v>1.012039650065645</v>
+        <v>1.045342399998525</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040598928473755</v>
+        <v>1.034457464669391</v>
       </c>
       <c r="J17">
-        <v>1.011536017755241</v>
+        <v>1.03379013751062</v>
       </c>
       <c r="K17">
-        <v>1.023550193499257</v>
+        <v>1.040632234077622</v>
       </c>
       <c r="L17">
-        <v>1.007241495708263</v>
+        <v>1.031082717650552</v>
       </c>
       <c r="M17">
-        <v>1.025839823104536</v>
+        <v>1.048676001949621</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9845657703363557</v>
+        <v>1.027773593627206</v>
       </c>
       <c r="D18">
-        <v>1.010561143749661</v>
+        <v>1.037442281837406</v>
       </c>
       <c r="E18">
-        <v>0.9940128164631562</v>
+        <v>1.027876194978368</v>
       </c>
       <c r="F18">
-        <v>1.013016122049415</v>
+        <v>1.04554379606542</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040881681715648</v>
+        <v>1.034497538789297</v>
       </c>
       <c r="J18">
-        <v>1.012224817845533</v>
+        <v>1.033931274784417</v>
       </c>
       <c r="K18">
-        <v>1.024200034635866</v>
+        <v>1.040761263853301</v>
       </c>
       <c r="L18">
-        <v>1.007935703030085</v>
+        <v>1.03122830980039</v>
       </c>
       <c r="M18">
-        <v>1.02661389994685</v>
+        <v>1.048835239048663</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.984953023949696</v>
+        <v>1.027849417942646</v>
       </c>
       <c r="D19">
-        <v>1.010850226813396</v>
+        <v>1.037500753180103</v>
       </c>
       <c r="E19">
-        <v>0.9943190847619175</v>
+        <v>1.027940501106426</v>
       </c>
       <c r="F19">
-        <v>1.013347918020614</v>
+        <v>1.045612479580635</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040977536737712</v>
+        <v>1.034511179035249</v>
       </c>
       <c r="J19">
-        <v>1.012458762077936</v>
+        <v>1.033979398320029</v>
       </c>
       <c r="K19">
-        <v>1.024420709820321</v>
+        <v>1.040805252384993</v>
       </c>
       <c r="L19">
-        <v>1.008171529745915</v>
+        <v>1.031277957207392</v>
       </c>
       <c r="M19">
-        <v>1.026876829413227</v>
+        <v>1.048889534611862</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9832152401615332</v>
+        <v>1.02751035780983</v>
       </c>
       <c r="D20">
-        <v>1.009553307796065</v>
+        <v>1.037239279785612</v>
       </c>
       <c r="E20">
-        <v>0.9929453390541882</v>
+        <v>1.027652977209221</v>
       </c>
       <c r="F20">
-        <v>1.011859482954596</v>
+        <v>1.045305360726084</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040546652699019</v>
+        <v>1.03445008195176</v>
       </c>
       <c r="J20">
-        <v>1.011408879090602</v>
+        <v>1.033764176079189</v>
       </c>
       <c r="K20">
-        <v>1.023430228382256</v>
+        <v>1.04060849656908</v>
       </c>
       <c r="L20">
-        <v>1.007113380904357</v>
+        <v>1.03105593909203</v>
       </c>
       <c r="M20">
-        <v>1.025696954584831</v>
+        <v>1.048646711409313</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9774587449995754</v>
+        <v>1.02640881695971</v>
       </c>
       <c r="D21">
-        <v>1.005263423881395</v>
+        <v>1.036389635135029</v>
       </c>
       <c r="E21">
-        <v>0.9884060662926167</v>
+        <v>1.02671941252717</v>
       </c>
       <c r="F21">
-        <v>1.006937955066455</v>
+        <v>1.044307770995502</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039106443330015</v>
+        <v>1.034249789057672</v>
       </c>
       <c r="J21">
-        <v>1.007930102477566</v>
+        <v>1.033064428197648</v>
       </c>
       <c r="K21">
-        <v>1.02014576052639</v>
+        <v>1.039968323795701</v>
       </c>
       <c r="L21">
-        <v>1.003610469498612</v>
+        <v>1.030334435207678</v>
       </c>
       <c r="M21">
-        <v>1.021789067207993</v>
+        <v>1.047857262817721</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9737533495364408</v>
+        <v>1.025716833580775</v>
       </c>
       <c r="D22">
-        <v>1.00250735746294</v>
+        <v>1.035855766857162</v>
       </c>
       <c r="E22">
-        <v>0.9854933145560236</v>
+        <v>1.02613337225249</v>
       </c>
       <c r="F22">
-        <v>1.003777419178958</v>
+        <v>1.043681230994538</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038169766714865</v>
+        <v>1.03412258687833</v>
       </c>
       <c r="J22">
-        <v>1.005690378183935</v>
+        <v>1.032624443229522</v>
       </c>
       <c r="K22">
-        <v>1.018029306220378</v>
+        <v>1.03956544322682</v>
       </c>
       <c r="L22">
-        <v>1.001357735467882</v>
+        <v>1.029881030871608</v>
       </c>
       <c r="M22">
-        <v>1.019274414242159</v>
+        <v>1.047360905879432</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9757260889301653</v>
+        <v>1.026083610021508</v>
       </c>
       <c r="D23">
-        <v>1.003974147484294</v>
+        <v>1.036138748135349</v>
       </c>
       <c r="E23">
-        <v>0.9870431674110447</v>
+        <v>1.026443954817898</v>
       </c>
       <c r="F23">
-        <v>1.005459349417062</v>
+        <v>1.044013306380636</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038669336428978</v>
+        <v>1.034190139381379</v>
       </c>
       <c r="J23">
-        <v>1.006882824844928</v>
+        <v>1.032857689722368</v>
       </c>
       <c r="K23">
-        <v>1.019156288092267</v>
+        <v>1.039779053385268</v>
       </c>
       <c r="L23">
-        <v>1.00255686918539</v>
+        <v>1.030121366603583</v>
       </c>
       <c r="M23">
-        <v>1.020613102069758</v>
+        <v>1.047624033626546</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9833103506521783</v>
+        <v>1.027528835388089</v>
       </c>
       <c r="D24">
-        <v>1.009624267356278</v>
+        <v>1.037253529805041</v>
       </c>
       <c r="E24">
-        <v>0.9930204841828798</v>
+        <v>1.027668644198148</v>
       </c>
       <c r="F24">
-        <v>1.011940914032782</v>
+        <v>1.045322096947688</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040570284097297</v>
+        <v>1.03445341832091</v>
       </c>
       <c r="J24">
-        <v>1.011466344518962</v>
+        <v>1.033775906943559</v>
       </c>
       <c r="K24">
-        <v>1.023484452104447</v>
+        <v>1.040619222659702</v>
       </c>
       <c r="L24">
-        <v>1.007171286696314</v>
+        <v>1.031068039092149</v>
       </c>
       <c r="M24">
-        <v>1.025761529346183</v>
+        <v>1.048659946546283</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9917633690186118</v>
+        <v>1.029208521893179</v>
       </c>
       <c r="D25">
-        <v>1.015940723434978</v>
+        <v>1.038548594141008</v>
       </c>
       <c r="E25">
-        <v>0.9997182619351358</v>
+        <v>1.029093830084577</v>
       </c>
       <c r="F25">
-        <v>1.019193003810046</v>
+        <v>1.046843808403459</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042646810402265</v>
+        <v>1.034753391558862</v>
       </c>
       <c r="J25">
-        <v>1.0165711441019</v>
+        <v>1.034841304845953</v>
       </c>
       <c r="K25">
-        <v>1.028296519316352</v>
+        <v>1.041592510355073</v>
       </c>
       <c r="L25">
-        <v>1.012320953099129</v>
+        <v>1.032167585182033</v>
       </c>
       <c r="M25">
-        <v>1.031500504035638</v>
+        <v>1.04986202987562</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_243/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_243/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.03055029072378</v>
+        <v>0.9982512649073091</v>
       </c>
       <c r="D2">
-        <v>1.039582631608319</v>
+        <v>1.020801057808652</v>
       </c>
       <c r="E2">
-        <v>1.030233735645875</v>
+        <v>1.004885172497494</v>
       </c>
       <c r="F2">
-        <v>1.048059835917407</v>
+        <v>1.024778747316787</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034988157074656</v>
+        <v>1.044204920708889</v>
       </c>
       <c r="J2">
-        <v>1.035690915942963</v>
+        <v>1.020484406442657</v>
       </c>
       <c r="K2">
-        <v>1.04236740876327</v>
+        <v>1.031978011883522</v>
       </c>
       <c r="L2">
-        <v>1.033045339321515</v>
+        <v>1.016276866087148</v>
       </c>
       <c r="M2">
-        <v>1.050820736706897</v>
+        <v>1.035903339644771</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
+        <v>1.005712725503999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.031525713853264</v>
+        <v>1.002826530634982</v>
       </c>
       <c r="D3">
-        <v>1.040334047593937</v>
+        <v>1.024234309476353</v>
       </c>
       <c r="E3">
-        <v>1.031063231416374</v>
+        <v>1.008542944698348</v>
       </c>
       <c r="F3">
-        <v>1.04894409824415</v>
+        <v>1.028727843380045</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035156002880945</v>
+        <v>1.045282148964179</v>
       </c>
       <c r="J3">
-        <v>1.036307707967146</v>
+        <v>1.023240437034857</v>
       </c>
       <c r="K3">
-        <v>1.04292922803617</v>
+        <v>1.034566220639085</v>
       </c>
       <c r="L3">
-        <v>1.033683090194355</v>
+        <v>1.01906767155279</v>
       </c>
       <c r="M3">
-        <v>1.05151678109444</v>
+        <v>1.039005881592479</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.032157419879803</v>
+        <v>1.005727938717873</v>
       </c>
       <c r="D4">
-        <v>1.040820539874346</v>
+        <v>1.026413742342642</v>
       </c>
       <c r="E4">
-        <v>1.031600807132731</v>
+        <v>1.010868700121684</v>
       </c>
       <c r="F4">
-        <v>1.049516877315329</v>
+        <v>1.03123640774097</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035263397277794</v>
+        <v>1.04595500765182</v>
       </c>
       <c r="J4">
-        <v>1.036706761791015</v>
+        <v>1.024986249529966</v>
       </c>
       <c r="K4">
-        <v>1.043292374736066</v>
+        <v>1.03620349541079</v>
       </c>
       <c r="L4">
-        <v>1.034095948083048</v>
+        <v>1.020837695718456</v>
       </c>
       <c r="M4">
-        <v>1.051967133040545</v>
+        <v>1.040971905341795</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.032423117985251</v>
+        <v>1.00693404809848</v>
       </c>
       <c r="D5">
-        <v>1.041025125892819</v>
+        <v>1.027320203829986</v>
       </c>
       <c r="E5">
-        <v>1.031827002915325</v>
+        <v>1.011836947044628</v>
       </c>
       <c r="F5">
-        <v>1.049757816376128</v>
+        <v>1.032280174339402</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035308254932027</v>
+        <v>1.046232207500349</v>
       </c>
       <c r="J5">
-        <v>1.036874510650811</v>
+        <v>1.025711480832616</v>
       </c>
       <c r="K5">
-        <v>1.043444947683672</v>
+        <v>1.036883088026261</v>
       </c>
       <c r="L5">
-        <v>1.03426955811229</v>
+        <v>1.021573507940192</v>
       </c>
       <c r="M5">
-        <v>1.052156451330734</v>
+        <v>1.041788774797721</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.032467737399309</v>
+        <v>1.007135773378553</v>
       </c>
       <c r="D6">
-        <v>1.04105948053718</v>
+        <v>1.02747183838442</v>
       </c>
       <c r="E6">
-        <v>1.031864993811216</v>
+        <v>1.011998972178547</v>
       </c>
       <c r="F6">
-        <v>1.049798279433289</v>
+        <v>1.03245480224521</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035315769652412</v>
+        <v>1.046278421429825</v>
       </c>
       <c r="J6">
-        <v>1.03690267561095</v>
+        <v>1.025832747449455</v>
       </c>
       <c r="K6">
-        <v>1.043470559814552</v>
+        <v>1.036996690523144</v>
       </c>
       <c r="L6">
-        <v>1.034298710584372</v>
+        <v>1.021696574537199</v>
       </c>
       <c r="M6">
-        <v>1.05218823810251</v>
+        <v>1.041925373390896</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.032160969645518</v>
+        <v>1.005744107765808</v>
       </c>
       <c r="D7">
-        <v>1.040823273310394</v>
+        <v>1.026425892523376</v>
       </c>
       <c r="E7">
-        <v>1.031603828791743</v>
+        <v>1.010881674787869</v>
       </c>
       <c r="F7">
-        <v>1.049520096195782</v>
+        <v>1.03125039670361</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035263997811875</v>
+        <v>1.045958733735232</v>
       </c>
       <c r="J7">
-        <v>1.036709003313209</v>
+        <v>1.024995973968758</v>
       </c>
       <c r="K7">
-        <v>1.043294413793641</v>
+        <v>1.036212610088989</v>
       </c>
       <c r="L7">
-        <v>1.034098267694889</v>
+        <v>1.020847559968092</v>
       </c>
       <c r="M7">
-        <v>1.051969662760316</v>
+        <v>1.040982857916136</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.030879826778748</v>
+        <v>0.999810045380176</v>
       </c>
       <c r="D8">
-        <v>1.039836518200812</v>
+        <v>1.021970251458261</v>
       </c>
       <c r="E8">
-        <v>1.030513893640531</v>
+        <v>1.006130041433562</v>
       </c>
       <c r="F8">
-        <v>1.048358550956346</v>
+        <v>1.026123269077899</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035045132198321</v>
+        <v>1.044574055138028</v>
       </c>
       <c r="J8">
-        <v>1.035899373860225</v>
+        <v>1.021423759252233</v>
       </c>
       <c r="K8">
-        <v>1.042557357909368</v>
+        <v>1.032860623431571</v>
       </c>
       <c r="L8">
-        <v>1.033260830174246</v>
+        <v>1.017227612760266</v>
       </c>
       <c r="M8">
-        <v>1.051055974749293</v>
+        <v>1.036960639136326</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.028626479261632</v>
+        <v>0.9888768597986718</v>
       </c>
       <c r="D9">
-        <v>1.03809990375174</v>
+        <v>1.013781662621342</v>
       </c>
       <c r="E9">
-        <v>1.028599752738653</v>
+        <v>0.9974268327568505</v>
       </c>
       <c r="F9">
-        <v>1.046316435341159</v>
+        <v>1.016713304405738</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034650196283176</v>
+        <v>1.041943228858419</v>
       </c>
       <c r="J9">
-        <v>1.034472348170658</v>
+        <v>1.014828613166858</v>
       </c>
       <c r="K9">
-        <v>1.041255646555638</v>
+        <v>1.026655030283239</v>
       </c>
       <c r="L9">
-        <v>1.031786661570097</v>
+        <v>1.010561796217943</v>
       </c>
       <c r="M9">
-        <v>1.049445722806262</v>
+        <v>1.02954091727518</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.027127115180575</v>
+        <v>0.9812318691073544</v>
       </c>
       <c r="D10">
-        <v>1.036943704306534</v>
+        <v>1.00807415390687</v>
       </c>
       <c r="E10">
-        <v>1.027328081870708</v>
+        <v>0.991379396654796</v>
       </c>
       <c r="F10">
-        <v>1.044958252949471</v>
+        <v>1.010162229950385</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034380707133342</v>
+        <v>1.040052608889057</v>
       </c>
       <c r="J10">
-        <v>1.033520814853591</v>
+        <v>1.010210431399735</v>
       </c>
       <c r="K10">
-        <v>1.04038593452166</v>
+        <v>1.022299141388168</v>
       </c>
       <c r="L10">
-        <v>1.030804953030839</v>
+        <v>1.005906062926392</v>
       </c>
       <c r="M10">
-        <v>1.048372147136781</v>
+        <v>1.024350394702263</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.026478564324758</v>
+        <v>0.9778283513866455</v>
       </c>
       <c r="D11">
-        <v>1.036443440318482</v>
+        <v>1.005538568186584</v>
       </c>
       <c r="E11">
-        <v>1.026778499453484</v>
+        <v>0.9886969987491685</v>
       </c>
       <c r="F11">
-        <v>1.044370928184025</v>
+        <v>1.007253532628809</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03426255175727</v>
+        <v>1.039199478215432</v>
       </c>
       <c r="J11">
-        <v>1.033108758598985</v>
+        <v>1.008153497172725</v>
       </c>
       <c r="K11">
-        <v>1.04000890074484</v>
+        <v>1.020356785656783</v>
       </c>
       <c r="L11">
-        <v>1.030380128702086</v>
+        <v>1.003835268159461</v>
       </c>
       <c r="M11">
-        <v>1.047907274216037</v>
+        <v>1.022039942206722</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.026237767138234</v>
+        <v>0.9765493346908906</v>
       </c>
       <c r="D12">
-        <v>1.036257678137218</v>
+        <v>1.004586613081399</v>
       </c>
       <c r="E12">
-        <v>1.026574520515102</v>
+        <v>0.9876905342006347</v>
       </c>
       <c r="F12">
-        <v>1.044152887763824</v>
+        <v>1.00616172801048</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034218444024338</v>
+        <v>1.038877219559844</v>
       </c>
       <c r="J12">
-        <v>1.03295569803995</v>
+        <v>1.007380430439294</v>
       </c>
       <c r="K12">
-        <v>1.039868788100282</v>
+        <v>1.019626465231272</v>
       </c>
       <c r="L12">
-        <v>1.030222370356616</v>
+        <v>1.003057425951889</v>
       </c>
       <c r="M12">
-        <v>1.047734599740375</v>
+        <v>1.021171823537729</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.026289414257256</v>
+        <v>0.9768243712334926</v>
       </c>
       <c r="D13">
-        <v>1.036297522103177</v>
+        <v>1.004791276967177</v>
       </c>
       <c r="E13">
-        <v>1.026618267409102</v>
+        <v>0.987906890068461</v>
       </c>
       <c r="F13">
-        <v>1.044199652805379</v>
+        <v>1.006396448436907</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034227915210474</v>
+        <v>1.038946591202992</v>
       </c>
       <c r="J13">
-        <v>1.032988530239534</v>
+        <v>1.007546671750481</v>
       </c>
       <c r="K13">
-        <v>1.039898845686638</v>
+        <v>1.019783528256103</v>
       </c>
       <c r="L13">
-        <v>1.030256208216829</v>
+        <v>1.003224674529632</v>
       </c>
       <c r="M13">
-        <v>1.047771638981722</v>
+        <v>1.021358494293533</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.026458657838853</v>
+        <v>0.977722934174542</v>
       </c>
       <c r="D14">
-        <v>1.036428083964837</v>
+        <v>1.005460088735448</v>
       </c>
       <c r="E14">
-        <v>1.026761635210503</v>
+        <v>0.9886140132621161</v>
       </c>
       <c r="F14">
-        <v>1.04435290247666</v>
+        <v>1.007163519349589</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034258910274455</v>
+        <v>1.039172950849979</v>
       </c>
       <c r="J14">
-        <v>1.033096106652428</v>
+        <v>1.00808978204018</v>
       </c>
       <c r="K14">
-        <v>1.039997320320567</v>
+        <v>1.020296599920154</v>
       </c>
       <c r="L14">
-        <v>1.030367087519789</v>
+        <v>1.003771150600755</v>
       </c>
       <c r="M14">
-        <v>1.047893000882761</v>
+        <v>1.021968388256474</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.026562948129963</v>
+        <v>0.9782745826462772</v>
       </c>
       <c r="D15">
-        <v>1.036508535181067</v>
+        <v>1.005870809063773</v>
       </c>
       <c r="E15">
-        <v>1.026849990142725</v>
+        <v>0.9890483405399512</v>
       </c>
       <c r="F15">
-        <v>1.044447340354313</v>
+        <v>1.007634611000261</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034277978276887</v>
+        <v>1.039311701361823</v>
       </c>
       <c r="J15">
-        <v>1.033162387458886</v>
+        <v>1.008423200273629</v>
       </c>
       <c r="K15">
-        <v>1.040057985141569</v>
+        <v>1.020611536232774</v>
       </c>
       <c r="L15">
-        <v>1.030435409290407</v>
+        <v>1.004106692413709</v>
       </c>
       <c r="M15">
-        <v>1.047967775993636</v>
+        <v>1.022342836091717</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.027170171834308</v>
+        <v>0.9814557191651369</v>
       </c>
       <c r="D16">
-        <v>1.036976913258947</v>
+        <v>1.008241039511076</v>
       </c>
       <c r="E16">
-        <v>1.027364578275709</v>
+        <v>0.9915560308513701</v>
       </c>
       <c r="F16">
-        <v>1.044997248252351</v>
+        <v>1.010353705721597</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034388517897906</v>
+        <v>1.04010848617897</v>
       </c>
       <c r="J16">
-        <v>1.033548160987128</v>
+        <v>1.010345701399629</v>
       </c>
       <c r="K16">
-        <v>1.040410947769486</v>
+        <v>1.022426831346673</v>
       </c>
       <c r="L16">
-        <v>1.030833152824195</v>
+        <v>1.006042304396951</v>
       </c>
       <c r="M16">
-        <v>1.048402999161248</v>
+        <v>1.024502367532573</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.027551250799699</v>
+        <v>0.9834256672405874</v>
       </c>
       <c r="D17">
-        <v>1.037270816606136</v>
+        <v>1.009710305620346</v>
       </c>
       <c r="E17">
-        <v>1.027687650360092</v>
+        <v>0.9931116001888762</v>
       </c>
       <c r="F17">
-        <v>1.045342399998525</v>
+        <v>1.012039650065644</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034457464669391</v>
+        <v>1.040598928473755</v>
       </c>
       <c r="J17">
-        <v>1.03379013751062</v>
+        <v>1.01153601775524</v>
       </c>
       <c r="K17">
-        <v>1.040632234077622</v>
+        <v>1.023550193499256</v>
       </c>
       <c r="L17">
-        <v>1.031082717650552</v>
+        <v>1.007241495708262</v>
       </c>
       <c r="M17">
-        <v>1.048676001949621</v>
+        <v>1.025839823104535</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.027773593627206</v>
+        <v>0.9845657703363558</v>
       </c>
       <c r="D18">
-        <v>1.037442281837406</v>
+        <v>1.010561143749661</v>
       </c>
       <c r="E18">
-        <v>1.027876194978368</v>
+        <v>0.9940128164631564</v>
       </c>
       <c r="F18">
-        <v>1.04554379606542</v>
+        <v>1.013016122049415</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034497538789297</v>
+        <v>1.040881681715648</v>
       </c>
       <c r="J18">
-        <v>1.033931274784417</v>
+        <v>1.012224817845533</v>
       </c>
       <c r="K18">
-        <v>1.040761263853301</v>
+        <v>1.024200034635866</v>
       </c>
       <c r="L18">
-        <v>1.03122830980039</v>
+        <v>1.007935703030085</v>
       </c>
       <c r="M18">
-        <v>1.048835239048663</v>
+        <v>1.02661389994685</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.027849417942646</v>
+        <v>0.9849530239496959</v>
       </c>
       <c r="D19">
-        <v>1.037500753180103</v>
+        <v>1.010850226813396</v>
       </c>
       <c r="E19">
-        <v>1.027940501106426</v>
+        <v>0.994319084761918</v>
       </c>
       <c r="F19">
-        <v>1.045612479580635</v>
+        <v>1.013347918020614</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034511179035249</v>
+        <v>1.040977536737712</v>
       </c>
       <c r="J19">
-        <v>1.033979398320029</v>
+        <v>1.012458762077936</v>
       </c>
       <c r="K19">
-        <v>1.040805252384993</v>
+        <v>1.024420709820322</v>
       </c>
       <c r="L19">
-        <v>1.031277957207392</v>
+        <v>1.008171529745915</v>
       </c>
       <c r="M19">
-        <v>1.048889534611862</v>
+        <v>1.026876829413227</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.02751035780983</v>
+        <v>0.9832152401615325</v>
       </c>
       <c r="D20">
-        <v>1.037239279785612</v>
+        <v>1.009553307796064</v>
       </c>
       <c r="E20">
-        <v>1.027652977209221</v>
+        <v>0.9929453390541875</v>
       </c>
       <c r="F20">
-        <v>1.045305360726084</v>
+        <v>1.011859482954595</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03445008195176</v>
+        <v>1.040546652699019</v>
       </c>
       <c r="J20">
-        <v>1.033764176079189</v>
+        <v>1.011408879090602</v>
       </c>
       <c r="K20">
-        <v>1.04060849656908</v>
+        <v>1.023430228382255</v>
       </c>
       <c r="L20">
-        <v>1.03105593909203</v>
+        <v>1.007113380904356</v>
       </c>
       <c r="M20">
-        <v>1.048646711409313</v>
+        <v>1.02569695458483</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.02640881695971</v>
+        <v>0.977458744999575</v>
       </c>
       <c r="D21">
-        <v>1.036389635135029</v>
+        <v>1.005263423881394</v>
       </c>
       <c r="E21">
-        <v>1.02671941252717</v>
+        <v>0.9884060662926163</v>
       </c>
       <c r="F21">
-        <v>1.044307770995502</v>
+        <v>1.006937955066454</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034249789057672</v>
+        <v>1.039106443330015</v>
       </c>
       <c r="J21">
-        <v>1.033064428197648</v>
+        <v>1.007930102477566</v>
       </c>
       <c r="K21">
-        <v>1.039968323795701</v>
+        <v>1.020145760526389</v>
       </c>
       <c r="L21">
-        <v>1.030334435207678</v>
+        <v>1.003610469498612</v>
       </c>
       <c r="M21">
-        <v>1.047857262817721</v>
+        <v>1.021789067207993</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.025716833580775</v>
+        <v>0.973753349536441</v>
       </c>
       <c r="D22">
-        <v>1.035855766857162</v>
+        <v>1.00250735746294</v>
       </c>
       <c r="E22">
-        <v>1.02613337225249</v>
+        <v>0.9854933145560236</v>
       </c>
       <c r="F22">
-        <v>1.043681230994538</v>
+        <v>1.003777419178958</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03412258687833</v>
+        <v>1.038169766714865</v>
       </c>
       <c r="J22">
-        <v>1.032624443229522</v>
+        <v>1.005690378183934</v>
       </c>
       <c r="K22">
-        <v>1.03956544322682</v>
+        <v>1.018029306220378</v>
       </c>
       <c r="L22">
-        <v>1.029881030871608</v>
+        <v>1.001357735467882</v>
       </c>
       <c r="M22">
-        <v>1.047360905879432</v>
+        <v>1.019274414242159</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.026083610021508</v>
+        <v>0.9757260889301655</v>
       </c>
       <c r="D23">
-        <v>1.036138748135349</v>
+        <v>1.003974147484294</v>
       </c>
       <c r="E23">
-        <v>1.026443954817898</v>
+        <v>0.9870431674110453</v>
       </c>
       <c r="F23">
-        <v>1.044013306380636</v>
+        <v>1.005459349417062</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034190139381379</v>
+        <v>1.038669336428979</v>
       </c>
       <c r="J23">
-        <v>1.032857689722368</v>
+        <v>1.006882824844929</v>
       </c>
       <c r="K23">
-        <v>1.039779053385268</v>
+        <v>1.019156288092267</v>
       </c>
       <c r="L23">
-        <v>1.030121366603583</v>
+        <v>1.002556869185391</v>
       </c>
       <c r="M23">
-        <v>1.047624033626546</v>
+        <v>1.020613102069759</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.027528835388089</v>
+        <v>0.9833103506521776</v>
       </c>
       <c r="D24">
-        <v>1.037253529805041</v>
+        <v>1.009624267356277</v>
       </c>
       <c r="E24">
-        <v>1.027668644198148</v>
+        <v>0.9930204841828789</v>
       </c>
       <c r="F24">
-        <v>1.045322096947688</v>
+        <v>1.011940914032781</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03445341832091</v>
+        <v>1.040570284097296</v>
       </c>
       <c r="J24">
-        <v>1.033775906943559</v>
+        <v>1.011466344518962</v>
       </c>
       <c r="K24">
-        <v>1.040619222659702</v>
+        <v>1.023484452104447</v>
       </c>
       <c r="L24">
-        <v>1.031068039092149</v>
+        <v>1.007171286696313</v>
       </c>
       <c r="M24">
-        <v>1.048659946546283</v>
+        <v>1.025761529346182</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.029208521893179</v>
+        <v>0.9917633690186122</v>
       </c>
       <c r="D25">
-        <v>1.038548594141008</v>
+        <v>1.015940723434979</v>
       </c>
       <c r="E25">
-        <v>1.029093830084577</v>
+        <v>0.999718261935136</v>
       </c>
       <c r="F25">
-        <v>1.046843808403459</v>
+        <v>1.019193003810047</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034753391558862</v>
+        <v>1.042646810402265</v>
       </c>
       <c r="J25">
-        <v>1.034841304845953</v>
+        <v>1.0165711441019</v>
       </c>
       <c r="K25">
-        <v>1.041592510355073</v>
+        <v>1.028296519316352</v>
       </c>
       <c r="L25">
-        <v>1.032167585182033</v>
+        <v>1.012320953099129</v>
       </c>
       <c r="M25">
-        <v>1.04986202987562</v>
+        <v>1.031500504035638</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
